--- a/ValueSet-TargetedAxillaSurgeryVS.xlsx
+++ b/ValueSet-TargetedAxillaSurgeryVS.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ichom-breast-cancer/ValueSet/TargetedAxillaSurgeryVS</t>
+    <t>http://ig-ichombreastcancer.gabriellesantosleandro.com/ValueSet/TargetedAxillaSurgeryVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T00:28:22+00:00</t>
+    <t>2023-11-12T21:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TargetedAxillaSurgeryVS.xlsx
+++ b/ValueSet-TargetedAxillaSurgeryVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-12T21:01:00+00:00</t>
+    <t>2023-11-13T00:07:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TargetedAxillaSurgeryVS.xlsx
+++ b/ValueSet-TargetedAxillaSurgeryVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T00:07:26-03:00</t>
+    <t>2023-11-13T00:45:53-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TargetedAxillaSurgeryVS.xlsx
+++ b/ValueSet-TargetedAxillaSurgeryVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T00:45:53-03:00</t>
+    <t>2023-11-13T01:02:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
